--- a/app/data/absenteeism_data_29.xlsx
+++ b/app/data/absenteeism_data_29.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83861</v>
+        <v>57877</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rafael Lima</t>
+          <t>Bruna Novaes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>7357.71</v>
+        <v>5555.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1123</v>
+        <v>52771</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Beatriz da Costa</t>
+          <t>Clarice Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>11534.46</v>
+        <v>9722.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12445</v>
+        <v>16557</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuella Costa</t>
+          <t>Srta. Maria Fernanda Oliveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>8761.969999999999</v>
+        <v>10030.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22244</v>
+        <v>97016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Henrique Peixoto</t>
+          <t>Srta. Alice Melo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>3382.5</v>
+        <v>7632.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40734</v>
+        <v>86465</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luana Lopes</t>
+          <t>Beatriz Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>7077.02</v>
+        <v>11753.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85791</v>
+        <v>66025</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucca Cavalcanti</t>
+          <t>Gabriel Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>3386.72</v>
+        <v>3537.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23283</v>
+        <v>53692</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Brenda Pinto</t>
+          <t>Dr. Luiz Otávio Pereira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>10985.57</v>
+        <v>10727.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2202</v>
+        <v>30248</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Milena Costela</t>
+          <t>Emanuelly Correia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>4877.96</v>
+        <v>3040.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36908</v>
+        <v>70271</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bryan Ribeiro</t>
+          <t>Vicente Correia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>3996.86</v>
+        <v>5070.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65606</v>
+        <v>47818</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Stella Novaes</t>
+          <t>Bianca Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>7151.32</v>
+        <v>10472.96</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_29.xlsx
+++ b/app/data/absenteeism_data_29.xlsx
@@ -476,219 +476,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44364</v>
+        <v>35828</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Srta. Caroline Moraes</t>
+          <t>Yuri Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>5327.43</v>
+        <v>9330.459999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50547</v>
+        <v>87586</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Ana Vitória Cavalcanti</t>
+          <t>Rebeca Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>3938.05</v>
+        <v>4114.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14999</v>
+        <v>88614</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calebe Moreira</t>
+          <t>Carolina Nunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>11344.6</v>
+        <v>10612.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73195</v>
+        <v>9433</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia Pinto</t>
+          <t>Luiz Henrique da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>9022.709999999999</v>
+        <v>2501.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47051</v>
+        <v>88532</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isaac da Paz</t>
+          <t>João Felipe Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>12462.24</v>
+        <v>5010.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50928</v>
+        <v>9463</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thales Gomes</t>
+          <t>Gustavo Henrique Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>9766.879999999999</v>
+        <v>2964.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27730</v>
+        <v>6299</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa Carvalho</t>
+          <t>Felipe Alves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>9463.959999999999</v>
+        <v>8278.040000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85651</v>
+        <v>32583</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Felipe da Cruz</t>
+          <t>Luiza Lima</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>8129.17</v>
+        <v>4585.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11229</v>
+        <v>87215</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luigi Costela</t>
+          <t>Ana Carolina Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>3862.56</v>
+        <v>4093.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7098</v>
+        <v>2095</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Erick da Conceição</t>
+          <t>Benjamin Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>10528.17</v>
+        <v>11554.16</v>
       </c>
     </row>
   </sheetData>
